--- a/ONCHO/Impact Assessments/Cameroon/fr_en/oct 2023/cm_oncho_pre_stop_5_202310_place_piqure_fr_en.xlsx
+++ b/ONCHO/Impact Assessments/Cameroon/fr_en/oct 2023/cm_oncho_pre_stop_5_202310_place_piqure_fr_en.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\fr_en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\fr_en\oct 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A389C70B-5FEB-47AA-84C6-3C7D3D56B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2174D551-D750-4C1A-90C7-FE2D192DD000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -229,12 +229,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>cm_oncho_pre_stop_5_202309_place_piqure_fr_en_v3</t>
-  </si>
-  <si>
-    <t>(Oct 2023) ONCHO - 5 Place des piqûres V3 (EN - FR)</t>
-  </si>
-  <si>
     <t>Code Operator/Team</t>
   </si>
   <si>
@@ -266,6 +260,12 @@
   </si>
   <si>
     <t>Optional</t>
+  </si>
+  <si>
+    <t>cm_oncho_pre_stop_5_202310_place_piqure_fr_en</t>
+  </si>
+  <si>
+    <t>(Oct 2023) ONCHO - 5 Place des piqûres V4 (EN - FR)</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
   </sheetPr>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -790,7 +790,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="19" t="s">
@@ -818,7 +818,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="20" t="s">
@@ -902,7 +902,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="20" t="s">
@@ -932,7 +932,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="20" t="s">
@@ -962,7 +962,7 @@
         <v>55</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="20" t="s">
@@ -992,7 +992,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="20" t="s">
@@ -1020,7 +1020,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="20" t="s">
@@ -1074,7 +1074,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="20" t="s">
@@ -1102,10 +1102,10 @@
         <v>52</v>
       </c>
       <c r="C13" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>50</v>
@@ -1132,10 +1132,10 @@
         <v>53</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>51</v>
@@ -1320,7 +1320,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>63</v>
